--- a/Perceptron_XOR_Gate.xlsx
+++ b/Perceptron_XOR_Gate.xlsx
@@ -209,7 +209,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,8 +312,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,8 +564,7 @@
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">IF(F13 &gt; 0,1,0)</f>
+      <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
@@ -592,8 +591,7 @@
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">IF(F14 &gt; 0,1,0)</f>
+      <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
@@ -618,10 +616,11 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">IF(F15 &gt; 0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
         <f aca="false">(H15-G15)^2</f>
@@ -633,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -642,14 +641,13 @@
       </c>
       <c r="F16" s="5" t="n">
         <f aca="false">(A16 * $C$3) + (B16 * $C$3) + $E$3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">IF(F16 &gt; 0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
         <f aca="false">(H16-G16)^2</f>
@@ -745,7 +743,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -757,14 +755,14 @@
       </c>
       <c r="F24" s="5" t="n">
         <f aca="false">(A24 * $C$3) + (B24 * $C$3) + $E$3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">IF(F24 &gt; 0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5" t="n">
         <f aca="false">(H24-G24)^2</f>
@@ -773,7 +771,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -785,7 +783,7 @@
       </c>
       <c r="F25" s="5" t="n">
         <f aca="false">(A25 * $C$3) + (B25 * $C$3) + $E$3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1</v>
@@ -803,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -812,14 +810,14 @@
       </c>
       <c r="F26" s="5" t="n">
         <f aca="false">(A26 * $C$3) + (B26 * $C$3) + $E$3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">IF(F26 &gt; 0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="5" t="n">
         <f aca="false">(H26-G26)^2</f>
@@ -915,7 +913,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -927,7 +925,7 @@
       </c>
       <c r="F34" s="5" t="n">
         <f aca="false">(A34 * $C$3) + (B34 * $C$3) + $E$3</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1</v>
@@ -946,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -955,7 +953,7 @@
       </c>
       <c r="F35" s="5" t="n">
         <f aca="false">(A35 * $C$3) + (B35 * $C$3) + $E$3</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
